--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -451,939 +451,1269 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>519732</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>69.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.57</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8896</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全商业模式优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008507</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德内核驱动混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>007316</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>交银施罗德可转债债券A</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>22.01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>007317</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>交银施罗德可转债债券C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>22.01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166801</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010201</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>农银汇理智增一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>420003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘永定价值成长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>378010</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>85.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519698</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>交银先锋混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001030</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘云端生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006593</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006594</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002967</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>671030</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>西部利得事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1393,7 +1723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1414,15 +1744,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>148.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1472,15 +1822,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>181.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>660010</t>
+          <t>008507</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银策略精选混合</t>
+          <t>交银施罗德内核驱动混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.18</t>
+          <t>131.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166801</t>
+          <t>007802</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商聚潮新思维混合</t>
+          <t>兴全合泰混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>75.34</t>
+          <t>70.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000127</t>
+          <t>660010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>农银行业领先混合</t>
+          <t>农银策略精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>68.82</t>
+          <t>52.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>66.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519959</t>
+          <t>010143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信多利灵活配置混合</t>
+          <t>交银施罗德启欣混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>50.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>000127</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>农银行业领先混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.49</t>
+          <t>19.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>68.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005851</t>
+          <t>010201</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合A</t>
+          <t>农银汇理智增一年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>26.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7800</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005959</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通新视野灵活配置混合C</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7186</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>378010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>上投摩根成长先锋混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>18.63</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6520</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>519698</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>交银先锋混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5317</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>660012</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>农银消费主题混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4939</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>257050</t>
+          <t>008819</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国联安主题驱动混合</t>
+          <t>农银汇理策略趋势混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>73.31</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4485</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010058</t>
+          <t>164205</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘荣创一年持有期混合</t>
+          <t>天弘文化新兴产业股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.46</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4434</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000663</t>
+          <t>007803</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
+          <t>兴全合泰混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>12.11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4190</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010143</t>
+          <t>420003</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>交银施罗德启欣混合</t>
+          <t>天弘永定价值成长混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>68.45</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3893</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>350007</t>
+          <t>000663</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天治趋势精选混合</t>
+          <t>国投瑞银美丽中国灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>68.39</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>688888</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>浙商聚潮产业成长混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>85.39</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010201</t>
+          <t>161232</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>农银汇理智增一年定期开放混合</t>
+          <t>国投瑞银瑞盛灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.19</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>378010</t>
+          <t>671010</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上投摩根成长先锋混合</t>
+          <t>西部利得策略优选混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>420003</t>
+          <t>166801</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天弘永定价值成长混合</t>
+          <t>浙商聚潮新思维混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001030</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天弘云端生活优选灵活配置混合</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001037</t>
+          <t>320022</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国投瑞银锐意改革灵活配置混合</t>
+          <t>诺安研究精选股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010552</t>
+          <t>002967</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合A</t>
+          <t>浙商大数据智选消费灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010553</t>
+          <t>660005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>浙商智选领航三年持有期混合C</t>
+          <t>农银中小盘混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007305</t>
+          <t>001037</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国联安新科技混合</t>
+          <t>国投瑞银锐意改革灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>74.27</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2190,25 +2800,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001474</t>
+          <t>008185</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>兴银丰盈灵活配置混合</t>
+          <t>诺安研究优选混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2218,25 +2838,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>519698</t>
+          <t>010552</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>交银先锋混合</t>
+          <t>浙商智选领航三年持有期混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>83.36</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>45.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -2274,25 +2914,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>519969</t>
+          <t>009414</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长信新利灵活配置混合</t>
+          <t>中银大健康股票A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23.48</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2302,25 +2952,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002189</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>农银汇理国企改革灵活配置混合</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>660005</t>
+          <t>001030</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>农银中小盘混合</t>
+          <t>天弘云端生活优选灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>61.51</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>660012</t>
+          <t>002189</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>农银消费主题混合A</t>
+          <t>农银汇理国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>960033</t>
+          <t>161233</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>农银消费主题混合H</t>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>671010</t>
+          <t>519959</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合A</t>
+          <t>长信多利灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011060</t>
+          <t>161225</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合C</t>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>泰达宏利中证500指数增强（LOF）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>5</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>007305</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>国联安新科技混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
+          <t>74.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>161225</t>
+          <t>519969</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+          <t>长信新利灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>4</v>
+          <t>23.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>161232</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>161233</t>
+          <t>257050</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+          <t>国联安主题驱动混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>22.72</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>4</v>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2648,15 +3418,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>92.70</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>3.27</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>010058</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
+          <t>天弘荣创一年持有期混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2694,25 +3484,35 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>350007</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>天治趋势精选混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>92.67</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+          <t>68.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>008819</t>
+          <t>009613</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>农银汇理策略趋势混合</t>
+          <t>上银中证500指数增强A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>68.74</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>7</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>166107</t>
+          <t>005851</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
+          <t>财通新视野灵活配置混合A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -2778,25 +3598,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>166108</t>
+          <t>010553</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
+          <t>浙商智选领航三年持有期混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>002967</t>
+          <t>007424</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
+          <t>西部利得聚禾灵活配置混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>3</v>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2834,25 +3674,35 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>007802</t>
+          <t>005959</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>兴全合泰混合A</t>
+          <t>财通新视野灵活配置混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>007803</t>
+          <t>004806</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>兴全合泰混合C</t>
+          <t>长信先机两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>87.46</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>10</v>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>003760</t>
+          <t>001474</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国泰中证500指数增强A</t>
+          <t>兴银丰盈灵活配置混合</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>6</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -2918,25 +3788,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>003761</t>
+          <t>003760</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国泰中证500指数增强C</t>
+          <t>国泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>90.66</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>008185</t>
+          <t>009614</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>诺安研究优选混合</t>
+          <t>上银中证500指数增强C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>7</v>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>004806</t>
+          <t>350008</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
+          <t>天治新消费灵活配置混合</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>9</v>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -3002,25 +3902,35 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>008507</t>
+          <t>010321</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>交银施罗德内核驱动混合</t>
+          <t>中银大健康股票C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
         <v>9</v>
       </c>
     </row>
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>164205</t>
+          <t>003761</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>天弘文化新兴产业股票</t>
+          <t>国泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>84.78</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>009613</t>
+          <t>011060</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>上银中证500指数增强A</t>
+          <t>西部利得策略优选混合C</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>9</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>009614</t>
+          <t>166107</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上银中证500指数增强C</t>
+          <t>信达澳银量化多因子混合（LOF）A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>92.96</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>9</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>009414</t>
+          <t>166108</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中银大健康股票A</t>
+          <t>信达澳银量化多因子混合（LOF）C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>9</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -3142,26 +4092,30 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>010321</t>
+          <t>960033</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中银大健康股票C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>85.91</t>
-        </is>
-      </c>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>9</v>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4100,7 +4101,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -4116,6 +4116,2380 @@
       </c>
       <c r="H63" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.9220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>196.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0834</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.8756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>106.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>660010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>51.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0440</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>59.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2297</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0495</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6984</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银行业领先混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6424</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5510</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4776</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4254</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银汇理策略趋势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3944</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2555</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1868</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>162712</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001499</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002358</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>49.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007326</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银新增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007235</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发聚利债券(LOF) C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6495,4 +6496,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.7944</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>153.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.7202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5787</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9022</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2468</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7996,4 +7997,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>61</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8005,7 +8006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8016,17 +8017,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8036,14 +8057,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.45</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.0824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8052,14 +8095,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>61</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.11</v>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>101.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4178</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8068,14 +8133,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.59</v>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.9010</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8084,13 +8171,4441 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>159.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0568</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0431</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4866</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2918</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2857</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1508</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1260</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0788</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>59.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0729</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9394</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>45.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6353</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011817</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华阿尔法混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5931</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5347</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5051</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4655</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4645</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4440</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4412</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4101</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3887</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3666</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2949</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2593</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010367</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512770</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏战略新兴成指ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0884</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.68</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001447</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘惠利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>27.11</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002639</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天弘价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010368</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中融景瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>33.70</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>32</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>28.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12504,7 +12505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12515,17 +12516,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12535,14 +12556,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>117</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.84</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -12551,14 +12594,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.45</v>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -12567,14 +12632,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.11</v>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9806</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -12583,14 +12670,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.59</v>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8990</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -12599,13 +12708,3659 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3542</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0133</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0018</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9694</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8796</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7859</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6829</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4900</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4227</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3822</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>33.10</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>55.90</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>97</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>117</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>61</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>32</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>28.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16243,7 +16244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16254,17 +16255,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16274,14 +16295,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>97</v>
-      </c>
-      <c r="D2" t="n">
-        <v>35.05</v>
+          <t>163406</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴全合润混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -16290,14 +16333,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>117</v>
-      </c>
-      <c r="D3" t="n">
-        <v>59.84</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -16306,14 +16371,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.45</v>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>127.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -16322,14 +16409,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.11</v>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7238</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -16338,14 +16447,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>62</v>
-      </c>
-      <c r="D6" t="n">
-        <v>40.59</v>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5805</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -16354,13 +16485,5750 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7466</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>68.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7015</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3787</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2161</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2033</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1607</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9423</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9236</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7948</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013451</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时凤凰领航混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6485</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5994</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5398</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5191</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000457</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5095</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5022</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5018</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>377010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.32</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3895</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3275</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2358</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009968</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>63.85</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013950</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>交银先锋混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009969</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金鹰内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>上银内需增长股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010331</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘消费股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>54.97</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003938</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方荣尊混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010332</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>天弘消费股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011290</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012628</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>29.59</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>011291</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>新疆前海联合添瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>33.15</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003939</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>南方荣尊混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015462</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>015170</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>上投摩根核心成长C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>153</v>
+      </c>
+      <c r="D2" t="n">
+        <v>58.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>117</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>32</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>28.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>58.52</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="D3" t="n">
-        <v>35.05</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>59.84</v>
+        <v>35.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D5" t="n">
-        <v>34.45</v>
+        <v>59.84</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>56.11</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>40.59</v>
+        <v>56.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>32</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>28.41</v>
       </c>
     </row>
@@ -600,6 +617,4276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007802</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全合泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8491</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8287</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7879</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7868</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6652</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5934</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5846</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5543</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4901</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4173</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3578</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007803</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全合泰混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3013</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011914</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011913</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏永泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1081</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012170</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014513</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004756</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013285</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014514</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010711</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华富国潮优选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>67.65</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016462</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>28.04</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>012171</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华夏永顺一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004757</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国寿安保稳吉混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013284</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>61.95</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>68.35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>37.90</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6450,7 +10737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10188,7 +14475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14686,7 +18973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16186,7 +20473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18560,7 +22847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20965,7 +25252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
+++ b/数据整理/stocks/A股/上证主板/603816-顾家家居.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>22.05</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>58.52</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="D4" t="n">
-        <v>35.05</v>
+        <v>58.52</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
-        <v>59.84</v>
+        <v>35.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D6" t="n">
-        <v>34.45</v>
+        <v>59.84</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>56.11</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="n">
-        <v>40.59</v>
+        <v>56.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1302 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>62</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>28.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163415</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全商业模式优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.2255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8896</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5929</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3403</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519698</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002967</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商大数据智选消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1906,4464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0849</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏线上经济主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8523</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8399</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000663</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银美丽中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011282</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7288</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>73.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6862</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6319</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5967</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009879</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5086</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4410</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001927</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3860</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3699</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014261</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161225</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银国家战略股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3082</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000520</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上银新兴价值成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2550</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007207</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏常阳三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2164</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1921</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1813</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮兴荣价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001928</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏消费升级灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009181</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161233</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016117</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>贝莱德先进制造一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015559</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江启航混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010692</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013109</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009182</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011283</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004138</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>320020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺安策略精选股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014373</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>39.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007393</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010971</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010693</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012334</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013285</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>64.23</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009899</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上银内需增长股票A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>016118</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>贝莱德先进制造一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014262</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>上投摩根沃享远见一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001250</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>天弘新活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平安优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010777</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>013110</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏优势价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010778</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>浙商智选家居股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015041</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014096</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>65.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011618</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>45.40</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015560</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长江启航混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>014113</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>上银未来生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>013284</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上银价值增长3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>64.23</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010972</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏永鑫六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012335</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>上银慧尚6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015745</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015754</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>上银内需增长股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015753</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>上银鑫达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4886,7 +10633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10737,7 +16484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14475,7 +20222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18973,7 +24720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20473,7 +26220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22847,7 +28594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25250,1276 +30997,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>160.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.3701</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>163415</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴全商业模式优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>173.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.1061</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008507</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德内核驱动混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>106.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5.2255</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519732</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银定期支付双息平衡混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>80.94</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>69.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.8896</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>340008</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴全有机增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8882</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164205</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘文化新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5929</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>378010</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5023</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3656</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>688888</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浙商聚潮产业成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3523</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>420003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘永定价值成长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3403</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161232</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盛灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3316</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519698</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>交银先锋混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3227</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000663</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国投瑞银美丽中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3133</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010201</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>农银汇理智增一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>26.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>34.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3018</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002967</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.66</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2956</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005335</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商全景消费混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2540</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>166801</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2198</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001030</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>天弘云端生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1622</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>161233</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞泰多策略灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1151</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>671030</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>西部利得事件驱动股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0895</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>161225</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国投瑞银瑞盈灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0815</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0448</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006593</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005851</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006594</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博道中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006102</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>浙商丰利增强债券</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007316</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>005959</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>财通新视野灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>501069</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007317</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>